--- a/icons.xlsx
+++ b/icons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRG\GitHub@geolonia\anabuki-housing-sprite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC70930-D41D-441F-BA67-B4851E19013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3323F-DF9D-46EA-BEEA-0B4C01E0E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ファイル名</t>
   </si>
@@ -196,6 +196,16 @@
   </si>
   <si>
     <t>#808080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一旦非表示</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -246,12 +256,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -273,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -287,6 +303,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -599,7 +621,7 @@
     <col min="7" max="16384" width="11.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -616,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -627,13 +649,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -650,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -667,7 +689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -678,20 +700,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="e" vm="3">
+      <c r="C6" s="2" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -701,44 +723,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="e" vm="4">
+      <c r="C7" s="6" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
